--- a/biology/Zoologie/Janalychas_shoplandi/Janalychas_shoplandi.xlsx
+++ b/biology/Zoologie/Janalychas_shoplandi/Janalychas_shoplandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janalychas shoplandi est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Birmanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Birmanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janalychas shoplandi mesure de 50 à 58 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janalychas shoplandi mesure de 50 à 58 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Isometrus shoplandi par Oates en 1888. Elle est placée dans le genre Lychas par Pocock en 1900[3] puis dans le genre Janalychas par Kovařík en 2019[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Isometrus shoplandi par Oates en 1888. Elle est placée dans le genre Lychas par Pocock en 1900 puis dans le genre Janalychas par Kovařík en 2019.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edwin Rew Shopland, (1844-1920)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Edwin Rew Shopland, (1844-1920).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Oates, 1888 : « On the Indian and Burmese Scorpions of the genus Isometrus, with descriptions of three new species. » Journal of the Bombay Natural History Society, vol. 3, p. 244–249 (texte intégral).</t>
         </is>
